--- a/in1.xlsx
+++ b/in1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>sid</t>
   </si>
@@ -96,14 +96,30 @@
   </si>
   <si>
     <t>size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>86</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +140,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -159,6 +182,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -179,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,12 +470,12 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -554,10 +580,10 @@
         <v>15</v>
       </c>
       <c r="I3" s="2">
-        <v>45040</v>
-      </c>
-      <c r="J3" s="3">
-        <v>180</v>
+        <v>45039</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K3" s="3">
         <v>101</v>
@@ -592,7 +618,7 @@
         <v>80</v>
       </c>
       <c r="I4" s="2">
-        <v>45042</v>
+        <v>45039</v>
       </c>
       <c r="J4" s="3">
         <v>365</v>
@@ -630,7 +656,7 @@
         <v>70</v>
       </c>
       <c r="I5" s="2">
-        <v>45043</v>
+        <v>45039</v>
       </c>
       <c r="J5" s="3">
         <v>180</v>
@@ -668,7 +694,7 @@
         <v>55</v>
       </c>
       <c r="I6" s="2">
-        <v>45044</v>
+        <v>45039</v>
       </c>
       <c r="J6" s="3">
         <v>180</v>

--- a/in1.xlsx
+++ b/in1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资料\大三下实训\出入库的excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>sid</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>蛋糕粉</t>
-  </si>
-  <si>
-    <t>易炸品</t>
   </si>
   <si>
     <t>size</t>
@@ -114,11 +111,55 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>input_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农夫山泉股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡夫食品公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆明千树纸业有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏冰川矿泉水有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美心蛋糕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,6 +173,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -171,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +227,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,7 +250,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,18 +512,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="20.90625" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -513,10 +560,25 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -553,8 +615,23 @@
       <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M2" s="5">
+        <v>45040</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45046</v>
+      </c>
+      <c r="O2" s="3">
+        <v>5</v>
+      </c>
+      <c r="P2" s="4">
+        <v>6652322</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -583,7 +660,7 @@
         <v>45039</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3">
         <v>101</v>
@@ -591,8 +668,23 @@
       <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M3" s="5">
+        <v>45040</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45047</v>
+      </c>
+      <c r="O3" s="4">
+        <v>6</v>
+      </c>
+      <c r="P3" s="4">
+        <v>6652322</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -629,8 +721,23 @@
       <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="M4" s="5">
+        <v>45040</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45048</v>
+      </c>
+      <c r="O4" s="4">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6652322</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -667,16 +774,31 @@
       <c r="L5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="M5" s="5">
+        <v>45040</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45049</v>
+      </c>
+      <c r="O5" s="4">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4">
+        <v>6652322</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -704,6 +826,21 @@
       </c>
       <c r="L6" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="M6" s="5">
+        <v>45040</v>
+      </c>
+      <c r="N6" s="5">
+        <v>45050</v>
+      </c>
+      <c r="O6" s="4">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4">
+        <v>6652322</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
